--- a/artifacts/model_trainer/test/test_y_dates.xlsx
+++ b/artifacts/model_trainer/test/test_y_dates.xlsx
@@ -466,19 +466,19 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45611</v>
+        <v>45624</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45612</v>
+        <v>45625</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>45613</v>
+        <v>45626</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45614</v>
+        <v>45627</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>45615</v>
+        <v>45628</v>
       </c>
     </row>
   </sheetData>
